--- a/biology/Médecine/Stade_tumoral/Stade_tumoral.xlsx
+++ b/biology/Médecine/Stade_tumoral/Stade_tumoral.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le stade tumoral (ou stade d'extension tumorale) établit un score en fonction de l'extension d'une tumeur. C'est une de deux composantes de l'histopronostic avec le grade tumoral. 
 Chaque tumeur a son propre système d'évaluation du stade d'extension. Par convention, le stade est noté en chiffres romains (à la différence du grade tumoral, noté en chiffres arabes.
@@ -512,7 +524,9 @@
           <t>Système TNM de l'OMS</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'O.M.S. a tenté [Quand ?] d'harmoniser ces systèmes en proposant une classification internationale, dite Système TNM. La classification TNM tient compte de la taille de la tumeur primitive (T), de l'existence éventuelle de métastases ganglionnaires régionales (N) ou de métastases à distance (M). 
 Elle peut être établie sur des données cliniques ou d'imagerie (TNM), ou sur les données de l'examen anatomopathologique postopératoire d'organes ayant fait l'objet d'une exérèse chirurgicale (pTNM; "p" signifiant pathology).
